--- a/molgenis-app/src/test/resources/test_annotate_computed.xlsx
+++ b/molgenis-app/src/test/resources/test_annotate_computed.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="2320" windowWidth="22980" windowHeight="12560" tabRatio="500"/>
+    <workbookView xWindow="5520" yWindow="2320" windowWidth="22980" windowHeight="12560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="attributes" sheetId="2" r:id="rId1"/>
     <sheet name="entities" sheetId="3" r:id="rId2"/>
-    <sheet name="test2" sheetId="4" r:id="rId3"/>
+    <sheet name="test" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="132">
   <si>
     <t>POS</t>
   </si>
@@ -971,7 +971,34 @@
     <t>test2</t>
   </si>
   <si>
-    <t>test entity with ordinary attributes</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test entity with computed attribute XREF</t>
+  </si>
+  <si>
+    <t>mysql_location</t>
+  </si>
+  <si>
+    <t>location entity for the xref</t>
+  </si>
+  <si>
+    <t>Chromosome</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>xref</t>
+  </si>
+  <si>
+    <t>{"#CHROM":Chromosome, "POS":Position}</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1071,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1069,6 +1096,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1082,7 +1115,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="30">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1094,6 +1127,9 @@
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1105,6 +1141,9 @@
     <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="15"/>
   </cellStyles>
@@ -1435,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1580,6 +1619,196 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" t="s">
+        <v>124</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1593,7 +1822,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -1614,10 +1843,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1634,23 +1871,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E420"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
         <v>25</v>
